--- a/EAGLE files/SLA_1500_CAM_BOM_V6.xlsx
+++ b/EAGLE files/SLA_1500_CAM_BOM_V6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/EAGLE files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\EAGLE files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C87FDB-D133-402B-9C38-EC8303D475BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F3C87FDB-D133-402B-9C38-EC8303D475BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FEF216C2-EE8B-4452-A711-5250F14CFCFB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E1460B4-AD17-414D-A5E4-3C19B174236F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$N$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -630,9 +630,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,7 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70754602-CEE7-4168-9F9F-2AFA788AA65D}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1043,7 +1048,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1508,7 +1513,7 @@
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1552,7 +1557,7 @@
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1596,7 +1601,7 @@
       <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1627,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -1640,7 +1645,7 @@
       <c r="D14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1684,7 +1689,7 @@
       <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1728,7 +1733,7 @@
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1772,7 +1777,7 @@
       <c r="D17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1816,7 +1821,7 @@
       <c r="D18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1860,7 +1865,7 @@
       <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1891,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1904,7 +1909,7 @@
       <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1948,7 +1953,7 @@
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1992,7 +1997,7 @@
       <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2036,7 +2041,7 @@
       <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2080,7 +2085,7 @@
       <c r="D24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2124,7 +2129,7 @@
       <c r="D25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2168,7 +2173,7 @@
       <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2212,7 +2217,7 @@
       <c r="D27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2256,7 +2261,7 @@
       <c r="D28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2300,7 +2305,7 @@
       <c r="D29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2344,7 +2349,7 @@
       <c r="D30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2388,7 +2393,7 @@
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2432,7 +2437,7 @@
       <c r="D32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2465,8 +2470,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
